--- a/29590765_project.xlsx
+++ b/29590765_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\C++\COMP371_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{620302D3-60B4-46F9-A383-EE6BE5AA5FC9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4C296D9B-1F51-4AA4-B615-6EA8F3879FA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
   <si>
     <t>Lighting</t>
   </si>
@@ -438,13 +438,19 @@
     <t>Window title updated periodically with current FPS</t>
   </si>
   <si>
-    <t>(UNFINISHED) Blades of grass uprooted by the hooves of models</t>
-  </si>
-  <si>
     <t>Animations are enabled if pathing is enabled</t>
   </si>
   <si>
     <t>Shader-generated grass animation is enabled if day and night cycle is enabled</t>
+  </si>
+  <si>
+    <t>Toggle rain</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Falling rain</t>
   </si>
 </sst>
 </file>
@@ -813,18 +819,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C17" sqref="B1:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -835,7 +841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -846,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -879,7 +885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -890,7 +896,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="32.25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -912,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -923,7 +929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -934,7 +940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -945,7 +951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -956,7 +962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
@@ -967,7 +973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -975,10 +981,10 @@
         <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -989,7 +995,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1030,20 +1036,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:D43"/>
+  <dimension ref="B1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C42" sqref="B1:D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
@@ -1107,7 +1113,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
@@ -1303,200 +1309,209 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>126</v>
       </c>
     </row>
